--- a/mess-menu/mess.xlsx
+++ b/mess-menu/mess.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahendra.singh\AppData\Local\Microsoft\Windows\INetCache\Content.Outlook\CND5J0OK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanjay.k.shukla\AppData\Local\Microsoft\Windows\INetCache\Content.Outlook\QJK2SUNX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13E3C8A-1000-426C-A3F3-77B0378EA627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE7FD91-5008-4A07-AA6C-CAE68EB1CD43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="2" state="hidden" r:id="rId1"/>
     <sheet name="South-Indian Mix " sheetId="3" state="hidden" r:id="rId2"/>
-    <sheet name="FOOD MESS  MENU-A- Septemb-2025" sheetId="4" r:id="rId3"/>
+    <sheet name="FOOD MESS  MENU-A- October-2025" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'FOOD MESS  MENU-A- Septemb-2025'!$A$1:$H$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'FOOD MESS  MENU-A- October-2025'!$A$1:$H$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="158">
   <si>
     <t>Menu</t>
   </si>
@@ -265,22 +265,22 @@
     <t>NIIT University Neemrana</t>
   </si>
   <si>
-    <t>Mess Menu A-September-2025</t>
-  </si>
-  <si>
-    <t>Mixed Paratha</t>
+    <t>Mess Menu A-October-2025</t>
+  </si>
+  <si>
+    <t>Mixed Paratha/Gobi/Onion</t>
+  </si>
+  <si>
+    <t>Masala Idli</t>
+  </si>
+  <si>
+    <t>Aloo/ Paratha</t>
   </si>
   <si>
     <t>Dal Paratha</t>
   </si>
   <si>
-    <t>Uttpam/Vada 2-pcs</t>
-  </si>
-  <si>
-    <t>Aloo Ki Sabji</t>
-  </si>
-  <si>
-    <t>Aloo/ Paratha</t>
+    <t>Adai/Vada 2-pcs</t>
   </si>
   <si>
     <t>Poha</t>
@@ -289,79 +289,76 @@
     <t>Sambhar</t>
   </si>
   <si>
-    <t xml:space="preserve"> Sambhar</t>
+    <t>Tamatar Chutney</t>
+  </si>
+  <si>
+    <t>Omelette Ltd</t>
+  </si>
+  <si>
+    <t>Coconut chutney</t>
+  </si>
+  <si>
+    <t>Bread butter jam</t>
+  </si>
+  <si>
+    <t>Pickle</t>
+  </si>
+  <si>
+    <t>Bread Butter Jam</t>
+  </si>
+  <si>
+    <t>Tea/ Coffee</t>
+  </si>
+  <si>
+    <t>Tea/Coffee</t>
+  </si>
+  <si>
+    <t>Tea /Coffee</t>
+  </si>
+  <si>
+    <t>Sirka Pyaz</t>
+  </si>
+  <si>
+    <t>Masala Onion Salad</t>
+  </si>
+  <si>
+    <t>Cucumber Salad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Onion Salad</t>
+  </si>
+  <si>
+    <t>Kadhi Pakora</t>
+  </si>
+  <si>
+    <t>Chana Dal Fry</t>
+  </si>
+  <si>
+    <t>Rajma Masala</t>
+  </si>
+  <si>
+    <t>Dhaba Dal</t>
+  </si>
+  <si>
+    <t>Black Chana</t>
+  </si>
+  <si>
+    <t>Chole Masala</t>
+  </si>
+  <si>
+    <t>Jeera Aloo</t>
   </si>
   <si>
     <t>Poori</t>
   </si>
   <si>
-    <t>Omelette Ltd</t>
-  </si>
-  <si>
-    <t>Coconut chutney</t>
-  </si>
-  <si>
-    <t>Bread butter jam</t>
-  </si>
-  <si>
-    <t>Tamatar Chutney</t>
-  </si>
-  <si>
-    <t>Pickle</t>
-  </si>
-  <si>
-    <t>Bread Butter Jam</t>
-  </si>
-  <si>
-    <t>Tea/ Coffee</t>
-  </si>
-  <si>
-    <t>Tea/Coffee</t>
-  </si>
-  <si>
-    <t>Tea /Coffee</t>
-  </si>
-  <si>
-    <t>Sirka Pyaz</t>
-  </si>
-  <si>
-    <t>Onion Salad</t>
-  </si>
-  <si>
-    <t>Cucumber Salad</t>
-  </si>
-  <si>
-    <t>Masala Onion Salad</t>
-  </si>
-  <si>
-    <t>Kadhi Pakora</t>
-  </si>
-  <si>
-    <t>Chana Dal Fry</t>
-  </si>
-  <si>
-    <t>Rajma Masala</t>
-  </si>
-  <si>
-    <t>Panchmel Dal</t>
-  </si>
-  <si>
-    <t>Black Chana</t>
-  </si>
-  <si>
-    <t>Chole Masala</t>
-  </si>
-  <si>
-    <t>Jeera Aloo</t>
-  </si>
-  <si>
     <t>Paneer/Egg Curry 2pcs</t>
   </si>
   <si>
     <t>Khatta Meetha Kaddu</t>
   </si>
   <si>
-    <t>Parwal Ki sabji</t>
+    <t>Tindli Masala</t>
   </si>
   <si>
     <t>Lauki Masala</t>
@@ -400,7 +397,10 @@
     <t>SNACKS</t>
   </si>
   <si>
-    <t>Vegetable Chomein Ltd</t>
+    <t>Aloo Chana Chat Ltd</t>
+  </si>
+  <si>
+    <t>Aloo Toast 2pcs</t>
   </si>
   <si>
     <t>Matar Kulcha</t>
@@ -412,40 +412,34 @@
     <t>Samosa 2pcs</t>
   </si>
   <si>
-    <t>Aloo Sandwich 2pcs</t>
-  </si>
-  <si>
-    <t>Chana Chat/Coleslaw Sandwich 2 Pcs</t>
+    <t>Patties 1pcs</t>
+  </si>
+  <si>
+    <t>Bhel Poori Ltd</t>
   </si>
   <si>
     <t>DINNER</t>
   </si>
   <si>
-    <t>Kheera Salad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Onion Salad</t>
-  </si>
-  <si>
     <t>Dal Makhani</t>
   </si>
   <si>
+    <t>Moong Dal Fry</t>
+  </si>
+  <si>
     <t>Arhar Dal Tadka</t>
   </si>
   <si>
-    <t>Lobia Dal</t>
-  </si>
-  <si>
     <t>Moong Dal Fried</t>
   </si>
   <si>
-    <t>Malai Kofta</t>
+    <t>Vegetable Hakka Noodles</t>
   </si>
   <si>
     <t>Moong Masoor Dal Fry</t>
   </si>
   <si>
-    <t>Mix Veg</t>
+    <t>Aloo Capsicum</t>
   </si>
   <si>
     <t>Sev Tamatar</t>
@@ -457,16 +451,16 @@
     <t>Dum Aloo</t>
   </si>
   <si>
-    <t>Soya Chaap Masala</t>
-  </si>
-  <si>
-    <t>Black Masoor Dal Fry</t>
-  </si>
-  <si>
-    <t>Aloo Pyaz Ki Sabji</t>
-  </si>
-  <si>
-    <t>Jeera Rice</t>
+    <t>Soya Afghani Masala</t>
+  </si>
+  <si>
+    <t>Veg Manchurian Gravy</t>
+  </si>
+  <si>
+    <t>Palak Corn</t>
+  </si>
+  <si>
+    <t>Vegetable Fried Rice</t>
   </si>
   <si>
     <t>Fruit Custard Ltd</t>
@@ -478,12 +472,15 @@
     <t>Gulab Jamun 1pcs</t>
   </si>
   <si>
-    <t>Balushahi 1pcs</t>
-  </si>
-  <si>
     <t>Besan Halwa Ltd</t>
   </si>
   <si>
+    <t>Suji Halwa Ltd</t>
+  </si>
+  <si>
+    <t>Vegetable Soup</t>
+  </si>
+  <si>
     <t>Jalebi Ltd</t>
   </si>
   <si>
@@ -514,10 +511,7 @@
     <t>Hi-Tea</t>
   </si>
   <si>
-    <t>Aloo Chana Chat Ltd</t>
-  </si>
-  <si>
-    <t>Boondi Ltd.</t>
+    <t>Kimchi Salad</t>
   </si>
 </sst>
 </file>
@@ -664,7 +658,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1137,7 +1131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1145,23 +1139,20 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1296,16 +1287,25 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
     </xf>
@@ -1315,58 +1315,11 @@
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="17" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="34"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1377,8 +1330,46 @@
     <xf numFmtId="17" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="34"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1693,9 +1684,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="6" width="8.81640625" customWidth="1"/>
+    <col min="1" max="6" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -1795,1733 +1786,1733 @@
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" customWidth="1"/>
-    <col min="2" max="2" width="37.1796875" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="37.21875" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="31.1796875" customWidth="1"/>
-    <col min="5" max="6" width="21.1796875" customWidth="1"/>
-    <col min="7" max="7" width="26.1796875" customWidth="1"/>
-    <col min="8" max="8" width="22.81640625" customWidth="1"/>
-    <col min="9" max="12" width="9.1796875" customWidth="1"/>
+    <col min="4" max="4" width="31.21875" customWidth="1"/>
+    <col min="5" max="6" width="21.21875" customWidth="1"/>
+    <col min="7" max="7" width="26.21875" customWidth="1"/>
+    <col min="8" max="8" width="22.77734375" customWidth="1"/>
+    <col min="9" max="12" width="9.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="26">
-      <c r="A1" s="67"/>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-    </row>
-    <row r="2" spans="1:12" ht="23.5">
-      <c r="A2" s="68" t="s">
+    <row r="1" spans="1:12" ht="25.8">
+      <c r="A1" s="55"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+    </row>
+    <row r="2" spans="1:12" ht="23.4">
+      <c r="A2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-    </row>
-    <row r="3" spans="1:12" ht="23.5">
-      <c r="A3" s="68"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-    </row>
-    <row r="4" spans="1:12" ht="18.5">
-      <c r="A4" s="12" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+    </row>
+    <row r="3" spans="1:12" ht="23.4">
+      <c r="A3" s="58"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+    </row>
+    <row r="4" spans="1:12" ht="18">
+      <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-    </row>
-    <row r="5" spans="1:12" ht="18.5">
-      <c r="A5" s="69"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-    </row>
-    <row r="6" spans="1:12" ht="18.5">
-      <c r="A6" s="62" t="s">
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+    </row>
+    <row r="5" spans="1:12" ht="18">
+      <c r="A5" s="59"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+    </row>
+    <row r="6" spans="1:12" ht="18">
+      <c r="A6" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-    </row>
-    <row r="7" spans="1:12" ht="18.5">
-      <c r="A7" s="63"/>
-      <c r="B7" s="20" t="s">
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+    </row>
+    <row r="7" spans="1:12" ht="18">
+      <c r="A7" s="65"/>
+      <c r="B7" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-    </row>
-    <row r="8" spans="1:12" ht="18.5">
-      <c r="A8" s="63"/>
-      <c r="B8" s="25" t="s">
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+    </row>
+    <row r="8" spans="1:12" ht="18">
+      <c r="A8" s="65"/>
+      <c r="B8" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-    </row>
-    <row r="9" spans="1:12" ht="18.5">
-      <c r="A9" s="63"/>
-      <c r="B9" s="20" t="s">
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+    </row>
+    <row r="9" spans="1:12" ht="18">
+      <c r="A9" s="65"/>
+      <c r="B9" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="H9" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-    </row>
-    <row r="10" spans="1:12" ht="18.5">
-      <c r="A10" s="63"/>
-      <c r="B10" s="20" t="s">
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+    </row>
+    <row r="10" spans="1:12" ht="18">
+      <c r="A10" s="65"/>
+      <c r="B10" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-    </row>
-    <row r="11" spans="1:12" ht="18.5">
-      <c r="A11" s="64"/>
-      <c r="B11" s="27" t="s">
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+    </row>
+    <row r="11" spans="1:12" ht="18">
+      <c r="A11" s="66"/>
+      <c r="B11" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="30" t="s">
+      <c r="H11" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-    </row>
-    <row r="12" spans="1:12" ht="18.5">
-      <c r="A12" s="70"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-    </row>
-    <row r="13" spans="1:12" ht="18.5">
-      <c r="A13" s="62" t="s">
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+    </row>
+    <row r="12" spans="1:12" ht="18">
+      <c r="A12" s="60"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+    </row>
+    <row r="13" spans="1:12" ht="18">
+      <c r="A13" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="31" t="s">
+      <c r="F13" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="32" t="s">
+      <c r="H13" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-    </row>
-    <row r="14" spans="1:12" ht="18.5">
-      <c r="A14" s="63"/>
-      <c r="B14" s="33" t="s">
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+    </row>
+    <row r="14" spans="1:12" ht="18">
+      <c r="A14" s="65"/>
+      <c r="B14" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="33" t="s">
+      <c r="F14" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="35" t="s">
+      <c r="G14" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="36"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-    </row>
-    <row r="15" spans="1:12" ht="18.5">
-      <c r="A15" s="63"/>
-      <c r="B15" s="35" t="s">
+      <c r="H14" s="35"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+    </row>
+    <row r="15" spans="1:12" ht="18">
+      <c r="A15" s="65"/>
+      <c r="B15" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="35" t="s">
+      <c r="G15" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="36" t="s">
+      <c r="H15" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-    </row>
-    <row r="16" spans="1:12" ht="18.5">
-      <c r="A16" s="63"/>
-      <c r="B16" s="35" t="s">
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+    </row>
+    <row r="16" spans="1:12" ht="18">
+      <c r="A16" s="65"/>
+      <c r="B16" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="33" t="s">
+      <c r="F16" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="33" t="s">
+      <c r="G16" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="H16" s="39" t="s">
+      <c r="H16" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-    </row>
-    <row r="17" spans="1:12" ht="18.5">
-      <c r="A17" s="63"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37" t="s">
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+    </row>
+    <row r="17" spans="1:12" ht="18">
+      <c r="A17" s="65"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="37" t="s">
+      <c r="E17" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="40" t="s">
+      <c r="F17" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="40" t="s">
+      <c r="G17" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="H17" s="39" t="s">
+      <c r="H17" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-    </row>
-    <row r="18" spans="1:12" ht="18.5">
-      <c r="A18" s="63"/>
-      <c r="B18" s="33" t="s">
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+    </row>
+    <row r="18" spans="1:12" ht="18">
+      <c r="A18" s="65"/>
+      <c r="B18" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="D18" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="F18" s="33" t="s">
+      <c r="F18" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="33" t="s">
+      <c r="G18" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="H18" s="33" t="s">
+      <c r="H18" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-    </row>
-    <row r="19" spans="1:12" ht="18.5">
-      <c r="A19" s="64"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-    </row>
-    <row r="20" spans="1:12" ht="18.5">
-      <c r="A20" s="59"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+    </row>
+    <row r="19" spans="1:12" ht="18">
+      <c r="A19" s="66"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+    </row>
+    <row r="20" spans="1:12" ht="18">
+      <c r="A20" s="63"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A21" s="65" t="s">
+      <c r="A21" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="31" t="s">
+      <c r="E21" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="F21" s="31" t="s">
+      <c r="F21" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="G21" s="31" t="s">
+      <c r="G21" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="H21" s="44" t="s">
+      <c r="H21" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
     </row>
     <row r="22" spans="1:12" ht="27" customHeight="1">
-      <c r="A22" s="66"/>
-      <c r="B22" s="41" t="s">
+      <c r="A22" s="68"/>
+      <c r="B22" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="41" t="s">
+      <c r="D22" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="41" t="s">
+      <c r="E22" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="F22" s="41" t="s">
+      <c r="F22" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="41" t="s">
+      <c r="G22" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="H22" s="41" t="s">
+      <c r="H22" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A23" s="59"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
+      <c r="A23" s="63"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A24" s="56" t="s">
+      <c r="A24" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="31" t="s">
+      <c r="E24" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="31" t="s">
+      <c r="F24" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="G24" s="31" t="s">
+      <c r="G24" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="H24" s="31" t="s">
+      <c r="H24" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A25" s="57"/>
-      <c r="B25" s="45" t="s">
+      <c r="A25" s="70"/>
+      <c r="B25" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="D25" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="40" t="s">
+      <c r="E25" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="F25" s="33" t="s">
+      <c r="F25" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="G25" s="35" t="s">
+      <c r="G25" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="33" t="s">
+      <c r="H25" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
     </row>
     <row r="26" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A26" s="57"/>
-      <c r="B26" s="45" t="s">
+      <c r="A26" s="70"/>
+      <c r="B26" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="D26" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="40" t="s">
+      <c r="E26" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="33" t="s">
+      <c r="F26" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="G26" s="33" t="s">
+      <c r="G26" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="H26" s="46" t="s">
+      <c r="H26" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A27" s="57"/>
-      <c r="B27" s="45" t="s">
+      <c r="A27" s="70"/>
+      <c r="B27" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="38" t="s">
+      <c r="D27" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="45" t="s">
+      <c r="E27" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="G27" s="38" t="s">
+      <c r="G27" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="H27" s="33" t="s">
+      <c r="H27" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="I27" s="52"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="50"/>
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A28" s="57"/>
-      <c r="B28" s="45" t="s">
+      <c r="A28" s="70"/>
+      <c r="B28" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="40" t="s">
+      <c r="C28" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="40" t="s">
+      <c r="D28" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="40" t="s">
+      <c r="E28" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="40" t="s">
+      <c r="F28" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="G28" s="40" t="s">
+      <c r="G28" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="H28" s="40" t="s">
+      <c r="H28" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="I28" s="52"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="50"/>
     </row>
     <row r="29" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A29" s="58"/>
-      <c r="B29" s="47" t="s">
+      <c r="A29" s="71"/>
+      <c r="B29" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="48" t="s">
+      <c r="C29" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="47" t="s">
+      <c r="D29" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="48" t="s">
+      <c r="E29" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="F29" s="47" t="s">
+      <c r="F29" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="G29" s="48" t="s">
+      <c r="G29" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="H29" s="47" t="s">
+      <c r="H29" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="I29" s="53"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="54"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="53"/>
     </row>
     <row r="30" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A30" s="49"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
+      <c r="A30" s="48"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
     </row>
     <row r="31" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A31" s="49"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
+      <c r="A31" s="48"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
     </row>
     <row r="32" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A32" s="49"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="49"/>
+      <c r="A32" s="48"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A33" s="49"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="49"/>
+      <c r="A33" s="48"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="48"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A34" s="49"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="49"/>
+      <c r="A34" s="48"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="48"/>
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A35" s="49"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="49"/>
+      <c r="A35" s="48"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="48"/>
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A36" s="49"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="49"/>
+      <c r="A36" s="48"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="48"/>
+      <c r="K36" s="48"/>
+      <c r="L36" s="48"/>
     </row>
     <row r="37" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A37" s="49"/>
-      <c r="B37" s="49"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="49"/>
-      <c r="L37" s="49"/>
+      <c r="A37" s="48"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="48"/>
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A38" s="49"/>
-      <c r="B38" s="49"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="49"/>
-      <c r="L38" s="49"/>
+      <c r="A38" s="48"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="48"/>
     </row>
     <row r="39" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A39" s="49"/>
-      <c r="B39" s="49"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="49"/>
-      <c r="L39" s="49"/>
+      <c r="A39" s="48"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="48"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="48"/>
+      <c r="L39" s="48"/>
     </row>
     <row r="40" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A40" s="49"/>
-      <c r="B40" s="49"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="49"/>
-      <c r="K40" s="49"/>
-      <c r="L40" s="49"/>
+      <c r="A40" s="48"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="48"/>
+      <c r="K40" s="48"/>
+      <c r="L40" s="48"/>
     </row>
     <row r="41" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A41" s="49"/>
-      <c r="B41" s="49"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="49"/>
-      <c r="J41" s="49"/>
-      <c r="K41" s="49"/>
-      <c r="L41" s="49"/>
+      <c r="A41" s="48"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="48"/>
+      <c r="K41" s="48"/>
+      <c r="L41" s="48"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A42" s="49"/>
-      <c r="B42" s="49"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="49"/>
-      <c r="K42" s="49"/>
-      <c r="L42" s="49"/>
+      <c r="A42" s="48"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="48"/>
+      <c r="K42" s="48"/>
+      <c r="L42" s="48"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A43" s="49"/>
-      <c r="B43" s="49"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="49"/>
-      <c r="J43" s="49"/>
-      <c r="K43" s="49"/>
-      <c r="L43" s="49"/>
+      <c r="A43" s="48"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="48"/>
+      <c r="K43" s="48"/>
+      <c r="L43" s="48"/>
     </row>
     <row r="44" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A44" s="49"/>
-      <c r="B44" s="49"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="49"/>
-      <c r="K44" s="49"/>
-      <c r="L44" s="49"/>
+      <c r="A44" s="48"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="48"/>
+      <c r="J44" s="48"/>
+      <c r="K44" s="48"/>
+      <c r="L44" s="48"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A45" s="49"/>
-      <c r="B45" s="49"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="49"/>
-      <c r="K45" s="49"/>
-      <c r="L45" s="49"/>
+      <c r="A45" s="48"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="48"/>
+      <c r="J45" s="48"/>
+      <c r="K45" s="48"/>
+      <c r="L45" s="48"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A46" s="49"/>
-      <c r="B46" s="49"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="49"/>
-      <c r="J46" s="49"/>
-      <c r="K46" s="49"/>
-      <c r="L46" s="49"/>
+      <c r="A46" s="48"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="48"/>
+      <c r="J46" s="48"/>
+      <c r="K46" s="48"/>
+      <c r="L46" s="48"/>
     </row>
     <row r="47" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A47" s="49"/>
-      <c r="B47" s="49"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="49"/>
-      <c r="H47" s="49"/>
-      <c r="I47" s="49"/>
-      <c r="J47" s="49"/>
-      <c r="K47" s="49"/>
-      <c r="L47" s="49"/>
+      <c r="A47" s="48"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="48"/>
+      <c r="J47" s="48"/>
+      <c r="K47" s="48"/>
+      <c r="L47" s="48"/>
     </row>
     <row r="48" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A48" s="49"/>
-      <c r="B48" s="49"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="49"/>
-      <c r="H48" s="49"/>
-      <c r="I48" s="49"/>
-      <c r="J48" s="49"/>
-      <c r="K48" s="49"/>
-      <c r="L48" s="49"/>
+      <c r="A48" s="48"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="48"/>
+      <c r="I48" s="48"/>
+      <c r="J48" s="48"/>
+      <c r="K48" s="48"/>
+      <c r="L48" s="48"/>
     </row>
     <row r="49" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A49" s="49"/>
-      <c r="B49" s="49"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="49"/>
-      <c r="J49" s="49"/>
-      <c r="K49" s="49"/>
-      <c r="L49" s="49"/>
+      <c r="A49" s="48"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="48"/>
+      <c r="I49" s="48"/>
+      <c r="J49" s="48"/>
+      <c r="K49" s="48"/>
+      <c r="L49" s="48"/>
     </row>
     <row r="50" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A50" s="49"/>
-      <c r="B50" s="49"/>
-      <c r="C50" s="49"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="49"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="49"/>
-      <c r="J50" s="49"/>
-      <c r="K50" s="49"/>
-      <c r="L50" s="49"/>
+      <c r="A50" s="48"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="48"/>
+      <c r="J50" s="48"/>
+      <c r="K50" s="48"/>
+      <c r="L50" s="48"/>
     </row>
     <row r="51" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A51" s="49"/>
-      <c r="B51" s="49"/>
-      <c r="C51" s="49"/>
-      <c r="D51" s="49"/>
-      <c r="E51" s="49"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="49"/>
-      <c r="H51" s="49"/>
-      <c r="I51" s="49"/>
-      <c r="J51" s="49"/>
-      <c r="K51" s="49"/>
-      <c r="L51" s="49"/>
+      <c r="A51" s="48"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="48"/>
+      <c r="I51" s="48"/>
+      <c r="J51" s="48"/>
+      <c r="K51" s="48"/>
+      <c r="L51" s="48"/>
     </row>
     <row r="52" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A52" s="49"/>
-      <c r="B52" s="49"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="49"/>
-      <c r="E52" s="49"/>
-      <c r="F52" s="49"/>
-      <c r="G52" s="49"/>
-      <c r="H52" s="49"/>
-      <c r="I52" s="49"/>
-      <c r="J52" s="49"/>
-      <c r="K52" s="49"/>
-      <c r="L52" s="49"/>
+      <c r="A52" s="48"/>
+      <c r="B52" s="48"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="48"/>
+      <c r="I52" s="48"/>
+      <c r="J52" s="48"/>
+      <c r="K52" s="48"/>
+      <c r="L52" s="48"/>
     </row>
     <row r="53" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A53" s="49"/>
-      <c r="B53" s="49"/>
-      <c r="C53" s="49"/>
-      <c r="D53" s="49"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="49"/>
-      <c r="H53" s="49"/>
-      <c r="I53" s="49"/>
-      <c r="J53" s="49"/>
-      <c r="K53" s="49"/>
-      <c r="L53" s="49"/>
+      <c r="A53" s="48"/>
+      <c r="B53" s="48"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="48"/>
+      <c r="I53" s="48"/>
+      <c r="J53" s="48"/>
+      <c r="K53" s="48"/>
+      <c r="L53" s="48"/>
     </row>
     <row r="54" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A54" s="49"/>
-      <c r="B54" s="49"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="49"/>
-      <c r="E54" s="49"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="49"/>
-      <c r="H54" s="49"/>
-      <c r="I54" s="49"/>
-      <c r="J54" s="49"/>
-      <c r="K54" s="49"/>
-      <c r="L54" s="49"/>
+      <c r="A54" s="48"/>
+      <c r="B54" s="48"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="48"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="48"/>
+      <c r="I54" s="48"/>
+      <c r="J54" s="48"/>
+      <c r="K54" s="48"/>
+      <c r="L54" s="48"/>
     </row>
     <row r="55" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A55" s="49"/>
-      <c r="B55" s="49"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="49"/>
-      <c r="E55" s="49"/>
-      <c r="F55" s="49"/>
-      <c r="G55" s="49"/>
-      <c r="H55" s="49"/>
-      <c r="I55" s="49"/>
-      <c r="J55" s="49"/>
-      <c r="K55" s="49"/>
-      <c r="L55" s="49"/>
+      <c r="A55" s="48"/>
+      <c r="B55" s="48"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="48"/>
+      <c r="H55" s="48"/>
+      <c r="I55" s="48"/>
+      <c r="J55" s="48"/>
+      <c r="K55" s="48"/>
+      <c r="L55" s="48"/>
     </row>
     <row r="56" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A56" s="49"/>
-      <c r="B56" s="49"/>
-      <c r="C56" s="49"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="49"/>
-      <c r="F56" s="49"/>
-      <c r="G56" s="49"/>
-      <c r="H56" s="49"/>
-      <c r="I56" s="49"/>
-      <c r="J56" s="49"/>
-      <c r="K56" s="49"/>
-      <c r="L56" s="49"/>
+      <c r="A56" s="48"/>
+      <c r="B56" s="48"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="48"/>
+      <c r="E56" s="48"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="48"/>
+      <c r="H56" s="48"/>
+      <c r="I56" s="48"/>
+      <c r="J56" s="48"/>
+      <c r="K56" s="48"/>
+      <c r="L56" s="48"/>
     </row>
     <row r="57" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A57" s="49"/>
-      <c r="B57" s="49"/>
-      <c r="C57" s="49"/>
-      <c r="D57" s="49"/>
-      <c r="E57" s="49"/>
-      <c r="F57" s="49"/>
-      <c r="G57" s="49"/>
-      <c r="H57" s="49"/>
-      <c r="I57" s="49"/>
-      <c r="J57" s="49"/>
-      <c r="K57" s="49"/>
-      <c r="L57" s="49"/>
+      <c r="A57" s="48"/>
+      <c r="B57" s="48"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="48"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="48"/>
+      <c r="H57" s="48"/>
+      <c r="I57" s="48"/>
+      <c r="J57" s="48"/>
+      <c r="K57" s="48"/>
+      <c r="L57" s="48"/>
     </row>
     <row r="58" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A58" s="49"/>
-      <c r="B58" s="49"/>
-      <c r="C58" s="49"/>
-      <c r="D58" s="49"/>
-      <c r="E58" s="49"/>
-      <c r="F58" s="49"/>
-      <c r="G58" s="49"/>
-      <c r="H58" s="49"/>
-      <c r="I58" s="49"/>
-      <c r="J58" s="49"/>
-      <c r="K58" s="49"/>
-      <c r="L58" s="49"/>
+      <c r="A58" s="48"/>
+      <c r="B58" s="48"/>
+      <c r="C58" s="48"/>
+      <c r="D58" s="48"/>
+      <c r="E58" s="48"/>
+      <c r="F58" s="48"/>
+      <c r="G58" s="48"/>
+      <c r="H58" s="48"/>
+      <c r="I58" s="48"/>
+      <c r="J58" s="48"/>
+      <c r="K58" s="48"/>
+      <c r="L58" s="48"/>
     </row>
     <row r="59" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A59" s="49"/>
-      <c r="B59" s="49"/>
-      <c r="C59" s="49"/>
-      <c r="D59" s="49"/>
-      <c r="E59" s="49"/>
-      <c r="F59" s="49"/>
-      <c r="G59" s="49"/>
-      <c r="H59" s="49"/>
-      <c r="I59" s="49"/>
-      <c r="J59" s="49"/>
-      <c r="K59" s="49"/>
-      <c r="L59" s="49"/>
+      <c r="A59" s="48"/>
+      <c r="B59" s="48"/>
+      <c r="C59" s="48"/>
+      <c r="D59" s="48"/>
+      <c r="E59" s="48"/>
+      <c r="F59" s="48"/>
+      <c r="G59" s="48"/>
+      <c r="H59" s="48"/>
+      <c r="I59" s="48"/>
+      <c r="J59" s="48"/>
+      <c r="K59" s="48"/>
+      <c r="L59" s="48"/>
     </row>
     <row r="60" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A60" s="49"/>
-      <c r="B60" s="49"/>
-      <c r="C60" s="49"/>
-      <c r="D60" s="49"/>
-      <c r="E60" s="49"/>
-      <c r="F60" s="49"/>
-      <c r="G60" s="49"/>
-      <c r="H60" s="49"/>
-      <c r="I60" s="49"/>
-      <c r="J60" s="49"/>
-      <c r="K60" s="49"/>
-      <c r="L60" s="49"/>
+      <c r="A60" s="48"/>
+      <c r="B60" s="48"/>
+      <c r="C60" s="48"/>
+      <c r="D60" s="48"/>
+      <c r="E60" s="48"/>
+      <c r="F60" s="48"/>
+      <c r="G60" s="48"/>
+      <c r="H60" s="48"/>
+      <c r="I60" s="48"/>
+      <c r="J60" s="48"/>
+      <c r="K60" s="48"/>
+      <c r="L60" s="48"/>
     </row>
     <row r="61" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A61" s="49"/>
-      <c r="B61" s="49"/>
-      <c r="C61" s="49"/>
-      <c r="D61" s="49"/>
-      <c r="E61" s="49"/>
-      <c r="F61" s="49"/>
-      <c r="G61" s="49"/>
-      <c r="H61" s="49"/>
-      <c r="I61" s="49"/>
-      <c r="J61" s="49"/>
-      <c r="K61" s="49"/>
-      <c r="L61" s="49"/>
+      <c r="A61" s="48"/>
+      <c r="B61" s="48"/>
+      <c r="C61" s="48"/>
+      <c r="D61" s="48"/>
+      <c r="E61" s="48"/>
+      <c r="F61" s="48"/>
+      <c r="G61" s="48"/>
+      <c r="H61" s="48"/>
+      <c r="I61" s="48"/>
+      <c r="J61" s="48"/>
+      <c r="K61" s="48"/>
+      <c r="L61" s="48"/>
     </row>
     <row r="62" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A62" s="49"/>
-      <c r="B62" s="49"/>
-      <c r="C62" s="49"/>
-      <c r="D62" s="49"/>
-      <c r="E62" s="49"/>
-      <c r="F62" s="49"/>
-      <c r="G62" s="49"/>
-      <c r="H62" s="49"/>
-      <c r="I62" s="49"/>
-      <c r="J62" s="49"/>
-      <c r="K62" s="49"/>
-      <c r="L62" s="49"/>
+      <c r="A62" s="48"/>
+      <c r="B62" s="48"/>
+      <c r="C62" s="48"/>
+      <c r="D62" s="48"/>
+      <c r="E62" s="48"/>
+      <c r="F62" s="48"/>
+      <c r="G62" s="48"/>
+      <c r="H62" s="48"/>
+      <c r="I62" s="48"/>
+      <c r="J62" s="48"/>
+      <c r="K62" s="48"/>
+      <c r="L62" s="48"/>
     </row>
     <row r="63" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A63" s="49"/>
-      <c r="B63" s="49"/>
-      <c r="C63" s="49"/>
-      <c r="D63" s="49"/>
-      <c r="E63" s="49"/>
-      <c r="F63" s="49"/>
-      <c r="G63" s="49"/>
-      <c r="H63" s="49"/>
-      <c r="I63" s="49"/>
-      <c r="J63" s="49"/>
-      <c r="K63" s="49"/>
-      <c r="L63" s="49"/>
+      <c r="A63" s="48"/>
+      <c r="B63" s="48"/>
+      <c r="C63" s="48"/>
+      <c r="D63" s="48"/>
+      <c r="E63" s="48"/>
+      <c r="F63" s="48"/>
+      <c r="G63" s="48"/>
+      <c r="H63" s="48"/>
+      <c r="I63" s="48"/>
+      <c r="J63" s="48"/>
+      <c r="K63" s="48"/>
+      <c r="L63" s="48"/>
     </row>
     <row r="64" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A64" s="49"/>
-      <c r="B64" s="49"/>
-      <c r="C64" s="49"/>
-      <c r="D64" s="49"/>
-      <c r="E64" s="49"/>
-      <c r="F64" s="49"/>
-      <c r="G64" s="49"/>
-      <c r="H64" s="49"/>
-      <c r="I64" s="49"/>
-      <c r="J64" s="49"/>
-      <c r="K64" s="49"/>
-      <c r="L64" s="49"/>
+      <c r="A64" s="48"/>
+      <c r="B64" s="48"/>
+      <c r="C64" s="48"/>
+      <c r="D64" s="48"/>
+      <c r="E64" s="48"/>
+      <c r="F64" s="48"/>
+      <c r="G64" s="48"/>
+      <c r="H64" s="48"/>
+      <c r="I64" s="48"/>
+      <c r="J64" s="48"/>
+      <c r="K64" s="48"/>
+      <c r="L64" s="48"/>
     </row>
     <row r="65" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A65" s="49"/>
-      <c r="B65" s="49"/>
-      <c r="C65" s="49"/>
-      <c r="D65" s="49"/>
-      <c r="E65" s="49"/>
-      <c r="F65" s="49"/>
-      <c r="G65" s="49"/>
-      <c r="H65" s="49"/>
-      <c r="I65" s="49"/>
-      <c r="J65" s="49"/>
-      <c r="K65" s="49"/>
-      <c r="L65" s="49"/>
+      <c r="A65" s="48"/>
+      <c r="B65" s="48"/>
+      <c r="C65" s="48"/>
+      <c r="D65" s="48"/>
+      <c r="E65" s="48"/>
+      <c r="F65" s="48"/>
+      <c r="G65" s="48"/>
+      <c r="H65" s="48"/>
+      <c r="I65" s="48"/>
+      <c r="J65" s="48"/>
+      <c r="K65" s="48"/>
+      <c r="L65" s="48"/>
     </row>
     <row r="66" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A66" s="49"/>
-      <c r="B66" s="49"/>
-      <c r="C66" s="49"/>
-      <c r="D66" s="49"/>
-      <c r="E66" s="49"/>
-      <c r="F66" s="49"/>
-      <c r="G66" s="49"/>
-      <c r="H66" s="49"/>
-      <c r="I66" s="49"/>
-      <c r="J66" s="49"/>
-      <c r="K66" s="49"/>
-      <c r="L66" s="49"/>
+      <c r="A66" s="48"/>
+      <c r="B66" s="48"/>
+      <c r="C66" s="48"/>
+      <c r="D66" s="48"/>
+      <c r="E66" s="48"/>
+      <c r="F66" s="48"/>
+      <c r="G66" s="48"/>
+      <c r="H66" s="48"/>
+      <c r="I66" s="48"/>
+      <c r="J66" s="48"/>
+      <c r="K66" s="48"/>
+      <c r="L66" s="48"/>
     </row>
     <row r="67" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A67" s="49"/>
-      <c r="B67" s="49"/>
-      <c r="C67" s="49"/>
-      <c r="D67" s="49"/>
-      <c r="E67" s="49"/>
-      <c r="F67" s="49"/>
-      <c r="G67" s="49"/>
-      <c r="H67" s="49"/>
-      <c r="I67" s="49"/>
-      <c r="J67" s="49"/>
-      <c r="K67" s="49"/>
-      <c r="L67" s="49"/>
+      <c r="A67" s="48"/>
+      <c r="B67" s="48"/>
+      <c r="C67" s="48"/>
+      <c r="D67" s="48"/>
+      <c r="E67" s="48"/>
+      <c r="F67" s="48"/>
+      <c r="G67" s="48"/>
+      <c r="H67" s="48"/>
+      <c r="I67" s="48"/>
+      <c r="J67" s="48"/>
+      <c r="K67" s="48"/>
+      <c r="L67" s="48"/>
     </row>
     <row r="68" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A68" s="49"/>
-      <c r="B68" s="49"/>
-      <c r="C68" s="49"/>
-      <c r="D68" s="49"/>
-      <c r="E68" s="49"/>
-      <c r="F68" s="49"/>
-      <c r="G68" s="49"/>
-      <c r="H68" s="49"/>
-      <c r="I68" s="49"/>
-      <c r="J68" s="49"/>
-      <c r="K68" s="49"/>
-      <c r="L68" s="49"/>
+      <c r="A68" s="48"/>
+      <c r="B68" s="48"/>
+      <c r="C68" s="48"/>
+      <c r="D68" s="48"/>
+      <c r="E68" s="48"/>
+      <c r="F68" s="48"/>
+      <c r="G68" s="48"/>
+      <c r="H68" s="48"/>
+      <c r="I68" s="48"/>
+      <c r="J68" s="48"/>
+      <c r="K68" s="48"/>
+      <c r="L68" s="48"/>
     </row>
     <row r="69" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A69" s="49"/>
-      <c r="B69" s="49"/>
-      <c r="C69" s="49"/>
-      <c r="D69" s="49"/>
-      <c r="E69" s="49"/>
-      <c r="F69" s="49"/>
-      <c r="G69" s="49"/>
-      <c r="H69" s="49"/>
-      <c r="I69" s="49"/>
-      <c r="J69" s="49"/>
-      <c r="K69" s="49"/>
-      <c r="L69" s="49"/>
+      <c r="A69" s="48"/>
+      <c r="B69" s="48"/>
+      <c r="C69" s="48"/>
+      <c r="D69" s="48"/>
+      <c r="E69" s="48"/>
+      <c r="F69" s="48"/>
+      <c r="G69" s="48"/>
+      <c r="H69" s="48"/>
+      <c r="I69" s="48"/>
+      <c r="J69" s="48"/>
+      <c r="K69" s="48"/>
+      <c r="L69" s="48"/>
     </row>
     <row r="70" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A70" s="49"/>
-      <c r="B70" s="49"/>
-      <c r="C70" s="49"/>
-      <c r="D70" s="49"/>
-      <c r="E70" s="49"/>
-      <c r="F70" s="49"/>
-      <c r="G70" s="49"/>
-      <c r="H70" s="49"/>
-      <c r="I70" s="49"/>
-      <c r="J70" s="49"/>
-      <c r="K70" s="49"/>
-      <c r="L70" s="49"/>
+      <c r="A70" s="48"/>
+      <c r="B70" s="48"/>
+      <c r="C70" s="48"/>
+      <c r="D70" s="48"/>
+      <c r="E70" s="48"/>
+      <c r="F70" s="48"/>
+      <c r="G70" s="48"/>
+      <c r="H70" s="48"/>
+      <c r="I70" s="48"/>
+      <c r="J70" s="48"/>
+      <c r="K70" s="48"/>
+      <c r="L70" s="48"/>
     </row>
     <row r="71" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A71" s="49"/>
-      <c r="B71" s="49"/>
-      <c r="C71" s="49"/>
-      <c r="D71" s="49"/>
-      <c r="E71" s="49"/>
-      <c r="F71" s="49"/>
-      <c r="G71" s="49"/>
-      <c r="H71" s="49"/>
-      <c r="I71" s="49"/>
-      <c r="J71" s="49"/>
-      <c r="K71" s="49"/>
-      <c r="L71" s="49"/>
+      <c r="A71" s="48"/>
+      <c r="B71" s="48"/>
+      <c r="C71" s="48"/>
+      <c r="D71" s="48"/>
+      <c r="E71" s="48"/>
+      <c r="F71" s="48"/>
+      <c r="G71" s="48"/>
+      <c r="H71" s="48"/>
+      <c r="I71" s="48"/>
+      <c r="J71" s="48"/>
+      <c r="K71" s="48"/>
+      <c r="L71" s="48"/>
     </row>
     <row r="72" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A72" s="49"/>
-      <c r="B72" s="49"/>
-      <c r="C72" s="49"/>
-      <c r="D72" s="49"/>
-      <c r="E72" s="49"/>
-      <c r="F72" s="49"/>
-      <c r="G72" s="49"/>
-      <c r="H72" s="49"/>
-      <c r="I72" s="49"/>
-      <c r="J72" s="49"/>
-      <c r="K72" s="49"/>
-      <c r="L72" s="49"/>
+      <c r="A72" s="48"/>
+      <c r="B72" s="48"/>
+      <c r="C72" s="48"/>
+      <c r="D72" s="48"/>
+      <c r="E72" s="48"/>
+      <c r="F72" s="48"/>
+      <c r="G72" s="48"/>
+      <c r="H72" s="48"/>
+      <c r="I72" s="48"/>
+      <c r="J72" s="48"/>
+      <c r="K72" s="48"/>
+      <c r="L72" s="48"/>
     </row>
     <row r="73" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A73" s="49"/>
-      <c r="B73" s="49"/>
-      <c r="C73" s="49"/>
-      <c r="D73" s="49"/>
-      <c r="E73" s="49"/>
-      <c r="F73" s="49"/>
-      <c r="G73" s="49"/>
-      <c r="H73" s="49"/>
-      <c r="I73" s="49"/>
-      <c r="J73" s="49"/>
-      <c r="K73" s="49"/>
-      <c r="L73" s="49"/>
+      <c r="A73" s="48"/>
+      <c r="B73" s="48"/>
+      <c r="C73" s="48"/>
+      <c r="D73" s="48"/>
+      <c r="E73" s="48"/>
+      <c r="F73" s="48"/>
+      <c r="G73" s="48"/>
+      <c r="H73" s="48"/>
+      <c r="I73" s="48"/>
+      <c r="J73" s="48"/>
+      <c r="K73" s="48"/>
+      <c r="L73" s="48"/>
     </row>
     <row r="74" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A74" s="49"/>
-      <c r="B74" s="49"/>
-      <c r="C74" s="49"/>
-      <c r="D74" s="49"/>
-      <c r="E74" s="49"/>
-      <c r="F74" s="49"/>
-      <c r="G74" s="49"/>
-      <c r="H74" s="49"/>
-      <c r="I74" s="49"/>
-      <c r="J74" s="49"/>
-      <c r="K74" s="49"/>
-      <c r="L74" s="49"/>
+      <c r="A74" s="48"/>
+      <c r="B74" s="48"/>
+      <c r="C74" s="48"/>
+      <c r="D74" s="48"/>
+      <c r="E74" s="48"/>
+      <c r="F74" s="48"/>
+      <c r="G74" s="48"/>
+      <c r="H74" s="48"/>
+      <c r="I74" s="48"/>
+      <c r="J74" s="48"/>
+      <c r="K74" s="48"/>
+      <c r="L74" s="48"/>
     </row>
     <row r="75" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A75" s="49"/>
-      <c r="B75" s="49"/>
-      <c r="C75" s="49"/>
-      <c r="D75" s="49"/>
-      <c r="E75" s="49"/>
-      <c r="F75" s="49"/>
-      <c r="G75" s="49"/>
-      <c r="H75" s="49"/>
-      <c r="I75" s="49"/>
-      <c r="J75" s="49"/>
-      <c r="K75" s="49"/>
-      <c r="L75" s="49"/>
+      <c r="A75" s="48"/>
+      <c r="B75" s="48"/>
+      <c r="C75" s="48"/>
+      <c r="D75" s="48"/>
+      <c r="E75" s="48"/>
+      <c r="F75" s="48"/>
+      <c r="G75" s="48"/>
+      <c r="H75" s="48"/>
+      <c r="I75" s="48"/>
+      <c r="J75" s="48"/>
+      <c r="K75" s="48"/>
+      <c r="L75" s="48"/>
     </row>
     <row r="76" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A76" s="49"/>
-      <c r="B76" s="49"/>
-      <c r="C76" s="49"/>
-      <c r="D76" s="49"/>
-      <c r="E76" s="49"/>
-      <c r="F76" s="49"/>
-      <c r="G76" s="49"/>
-      <c r="H76" s="49"/>
-      <c r="I76" s="49"/>
-      <c r="J76" s="49"/>
-      <c r="K76" s="49"/>
-      <c r="L76" s="49"/>
+      <c r="A76" s="48"/>
+      <c r="B76" s="48"/>
+      <c r="C76" s="48"/>
+      <c r="D76" s="48"/>
+      <c r="E76" s="48"/>
+      <c r="F76" s="48"/>
+      <c r="G76" s="48"/>
+      <c r="H76" s="48"/>
+      <c r="I76" s="48"/>
+      <c r="J76" s="48"/>
+      <c r="K76" s="48"/>
+      <c r="L76" s="48"/>
     </row>
     <row r="77" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A77" s="49"/>
-      <c r="B77" s="49"/>
-      <c r="C77" s="49"/>
-      <c r="D77" s="49"/>
-      <c r="E77" s="49"/>
-      <c r="F77" s="49"/>
-      <c r="G77" s="49"/>
-      <c r="H77" s="49"/>
-      <c r="I77" s="49"/>
-      <c r="J77" s="49"/>
-      <c r="K77" s="49"/>
-      <c r="L77" s="49"/>
+      <c r="A77" s="48"/>
+      <c r="B77" s="48"/>
+      <c r="C77" s="48"/>
+      <c r="D77" s="48"/>
+      <c r="E77" s="48"/>
+      <c r="F77" s="48"/>
+      <c r="G77" s="48"/>
+      <c r="H77" s="48"/>
+      <c r="I77" s="48"/>
+      <c r="J77" s="48"/>
+      <c r="K77" s="48"/>
+      <c r="L77" s="48"/>
     </row>
     <row r="78" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A78" s="49"/>
-      <c r="B78" s="49"/>
-      <c r="C78" s="49"/>
-      <c r="D78" s="49"/>
-      <c r="E78" s="49"/>
-      <c r="F78" s="49"/>
-      <c r="G78" s="49"/>
-      <c r="H78" s="49"/>
-      <c r="I78" s="49"/>
-      <c r="J78" s="49"/>
-      <c r="K78" s="49"/>
-      <c r="L78" s="49"/>
+      <c r="A78" s="48"/>
+      <c r="B78" s="48"/>
+      <c r="C78" s="48"/>
+      <c r="D78" s="48"/>
+      <c r="E78" s="48"/>
+      <c r="F78" s="48"/>
+      <c r="G78" s="48"/>
+      <c r="H78" s="48"/>
+      <c r="I78" s="48"/>
+      <c r="J78" s="48"/>
+      <c r="K78" s="48"/>
+      <c r="L78" s="48"/>
     </row>
     <row r="79" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A79" s="49"/>
-      <c r="B79" s="49"/>
-      <c r="C79" s="49"/>
-      <c r="D79" s="49"/>
-      <c r="E79" s="49"/>
-      <c r="F79" s="49"/>
-      <c r="G79" s="49"/>
-      <c r="H79" s="49"/>
-      <c r="I79" s="49"/>
-      <c r="J79" s="49"/>
-      <c r="K79" s="49"/>
-      <c r="L79" s="49"/>
+      <c r="A79" s="48"/>
+      <c r="B79" s="48"/>
+      <c r="C79" s="48"/>
+      <c r="D79" s="48"/>
+      <c r="E79" s="48"/>
+      <c r="F79" s="48"/>
+      <c r="G79" s="48"/>
+      <c r="H79" s="48"/>
+      <c r="I79" s="48"/>
+      <c r="J79" s="48"/>
+      <c r="K79" s="48"/>
+      <c r="L79" s="48"/>
     </row>
     <row r="80" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A80" s="49"/>
-      <c r="B80" s="49"/>
-      <c r="C80" s="49"/>
-      <c r="D80" s="49"/>
-      <c r="E80" s="49"/>
-      <c r="F80" s="49"/>
-      <c r="G80" s="49"/>
-      <c r="H80" s="49"/>
-      <c r="I80" s="49"/>
-      <c r="J80" s="49"/>
-      <c r="K80" s="49"/>
-      <c r="L80" s="49"/>
+      <c r="A80" s="48"/>
+      <c r="B80" s="48"/>
+      <c r="C80" s="48"/>
+      <c r="D80" s="48"/>
+      <c r="E80" s="48"/>
+      <c r="F80" s="48"/>
+      <c r="G80" s="48"/>
+      <c r="H80" s="48"/>
+      <c r="I80" s="48"/>
+      <c r="J80" s="48"/>
+      <c r="K80" s="48"/>
+      <c r="L80" s="48"/>
     </row>
     <row r="81" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A81" s="49"/>
-      <c r="B81" s="49"/>
-      <c r="C81" s="49"/>
-      <c r="D81" s="49"/>
-      <c r="E81" s="49"/>
-      <c r="F81" s="49"/>
-      <c r="G81" s="49"/>
-      <c r="H81" s="49"/>
-      <c r="I81" s="49"/>
-      <c r="J81" s="49"/>
-      <c r="K81" s="49"/>
-      <c r="L81" s="49"/>
+      <c r="A81" s="48"/>
+      <c r="B81" s="48"/>
+      <c r="C81" s="48"/>
+      <c r="D81" s="48"/>
+      <c r="E81" s="48"/>
+      <c r="F81" s="48"/>
+      <c r="G81" s="48"/>
+      <c r="H81" s="48"/>
+      <c r="I81" s="48"/>
+      <c r="J81" s="48"/>
+      <c r="K81" s="48"/>
+      <c r="L81" s="48"/>
     </row>
     <row r="82" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A82" s="49"/>
-      <c r="B82" s="49"/>
-      <c r="C82" s="49"/>
-      <c r="D82" s="49"/>
-      <c r="E82" s="49"/>
-      <c r="F82" s="49"/>
-      <c r="G82" s="49"/>
-      <c r="H82" s="49"/>
-      <c r="I82" s="49"/>
-      <c r="J82" s="49"/>
-      <c r="K82" s="49"/>
-      <c r="L82" s="49"/>
+      <c r="A82" s="48"/>
+      <c r="B82" s="48"/>
+      <c r="C82" s="48"/>
+      <c r="D82" s="48"/>
+      <c r="E82" s="48"/>
+      <c r="F82" s="48"/>
+      <c r="G82" s="48"/>
+      <c r="H82" s="48"/>
+      <c r="I82" s="48"/>
+      <c r="J82" s="48"/>
+      <c r="K82" s="48"/>
+      <c r="L82" s="48"/>
     </row>
     <row r="83" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A83" s="49"/>
-      <c r="B83" s="49"/>
-      <c r="C83" s="49"/>
-      <c r="D83" s="49"/>
-      <c r="E83" s="49"/>
-      <c r="F83" s="49"/>
-      <c r="G83" s="49"/>
-      <c r="H83" s="49"/>
-      <c r="I83" s="49"/>
-      <c r="J83" s="49"/>
-      <c r="K83" s="49"/>
-      <c r="L83" s="49"/>
+      <c r="A83" s="48"/>
+      <c r="B83" s="48"/>
+      <c r="C83" s="48"/>
+      <c r="D83" s="48"/>
+      <c r="E83" s="48"/>
+      <c r="F83" s="48"/>
+      <c r="G83" s="48"/>
+      <c r="H83" s="48"/>
+      <c r="I83" s="48"/>
+      <c r="J83" s="48"/>
+      <c r="K83" s="48"/>
+      <c r="L83" s="48"/>
     </row>
     <row r="84" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A84" s="49"/>
-      <c r="B84" s="49"/>
-      <c r="C84" s="49"/>
-      <c r="D84" s="49"/>
-      <c r="E84" s="49"/>
-      <c r="F84" s="49"/>
-      <c r="G84" s="49"/>
-      <c r="H84" s="49"/>
-      <c r="I84" s="49"/>
-      <c r="J84" s="49"/>
-      <c r="K84" s="49"/>
-      <c r="L84" s="49"/>
+      <c r="A84" s="48"/>
+      <c r="B84" s="48"/>
+      <c r="C84" s="48"/>
+      <c r="D84" s="48"/>
+      <c r="E84" s="48"/>
+      <c r="F84" s="48"/>
+      <c r="G84" s="48"/>
+      <c r="H84" s="48"/>
+      <c r="I84" s="48"/>
+      <c r="J84" s="48"/>
+      <c r="K84" s="48"/>
+      <c r="L84" s="48"/>
     </row>
     <row r="85" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A85" s="49"/>
-      <c r="B85" s="49"/>
-      <c r="C85" s="49"/>
-      <c r="D85" s="49"/>
-      <c r="E85" s="49"/>
-      <c r="F85" s="49"/>
-      <c r="G85" s="49"/>
-      <c r="H85" s="49"/>
-      <c r="I85" s="49"/>
-      <c r="J85" s="49"/>
-      <c r="K85" s="49"/>
-      <c r="L85" s="49"/>
+      <c r="A85" s="48"/>
+      <c r="B85" s="48"/>
+      <c r="C85" s="48"/>
+      <c r="D85" s="48"/>
+      <c r="E85" s="48"/>
+      <c r="F85" s="48"/>
+      <c r="G85" s="48"/>
+      <c r="H85" s="48"/>
+      <c r="I85" s="48"/>
+      <c r="J85" s="48"/>
+      <c r="K85" s="48"/>
+      <c r="L85" s="48"/>
     </row>
     <row r="86" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A86" s="49"/>
-      <c r="B86" s="49"/>
-      <c r="C86" s="49"/>
-      <c r="D86" s="49"/>
-      <c r="E86" s="49"/>
-      <c r="F86" s="49"/>
-      <c r="G86" s="49"/>
-      <c r="H86" s="49"/>
-      <c r="I86" s="49"/>
-      <c r="J86" s="49"/>
-      <c r="K86" s="49"/>
-      <c r="L86" s="49"/>
+      <c r="A86" s="48"/>
+      <c r="B86" s="48"/>
+      <c r="C86" s="48"/>
+      <c r="D86" s="48"/>
+      <c r="E86" s="48"/>
+      <c r="F86" s="48"/>
+      <c r="G86" s="48"/>
+      <c r="H86" s="48"/>
+      <c r="I86" s="48"/>
+      <c r="J86" s="48"/>
+      <c r="K86" s="48"/>
+      <c r="L86" s="48"/>
     </row>
     <row r="87" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A87" s="49"/>
-      <c r="B87" s="49"/>
-      <c r="C87" s="49"/>
-      <c r="D87" s="49"/>
-      <c r="E87" s="49"/>
-      <c r="F87" s="49"/>
-      <c r="G87" s="49"/>
-      <c r="H87" s="49"/>
-      <c r="I87" s="49"/>
-      <c r="J87" s="49"/>
-      <c r="K87" s="49"/>
-      <c r="L87" s="49"/>
+      <c r="A87" s="48"/>
+      <c r="B87" s="48"/>
+      <c r="C87" s="48"/>
+      <c r="D87" s="48"/>
+      <c r="E87" s="48"/>
+      <c r="F87" s="48"/>
+      <c r="G87" s="48"/>
+      <c r="H87" s="48"/>
+      <c r="I87" s="48"/>
+      <c r="J87" s="48"/>
+      <c r="K87" s="48"/>
+      <c r="L87" s="48"/>
     </row>
     <row r="88" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A88" s="49"/>
-      <c r="B88" s="49"/>
-      <c r="C88" s="49"/>
-      <c r="D88" s="49"/>
-      <c r="E88" s="49"/>
-      <c r="F88" s="49"/>
-      <c r="G88" s="49"/>
-      <c r="H88" s="49"/>
-      <c r="I88" s="49"/>
-      <c r="J88" s="49"/>
-      <c r="K88" s="49"/>
-      <c r="L88" s="49"/>
+      <c r="A88" s="48"/>
+      <c r="B88" s="48"/>
+      <c r="C88" s="48"/>
+      <c r="D88" s="48"/>
+      <c r="E88" s="48"/>
+      <c r="F88" s="48"/>
+      <c r="G88" s="48"/>
+      <c r="H88" s="48"/>
+      <c r="I88" s="48"/>
+      <c r="J88" s="48"/>
+      <c r="K88" s="48"/>
+      <c r="L88" s="48"/>
     </row>
     <row r="89" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A89" s="49"/>
-      <c r="B89" s="49"/>
-      <c r="C89" s="49"/>
-      <c r="D89" s="49"/>
-      <c r="E89" s="49"/>
-      <c r="F89" s="49"/>
-      <c r="G89" s="49"/>
-      <c r="H89" s="49"/>
-      <c r="I89" s="49"/>
-      <c r="J89" s="49"/>
-      <c r="K89" s="49"/>
-      <c r="L89" s="49"/>
+      <c r="A89" s="48"/>
+      <c r="B89" s="48"/>
+      <c r="C89" s="48"/>
+      <c r="D89" s="48"/>
+      <c r="E89" s="48"/>
+      <c r="F89" s="48"/>
+      <c r="G89" s="48"/>
+      <c r="H89" s="48"/>
+      <c r="I89" s="48"/>
+      <c r="J89" s="48"/>
+      <c r="K89" s="48"/>
+      <c r="L89" s="48"/>
     </row>
     <row r="90" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A90" s="49"/>
-      <c r="B90" s="49"/>
-      <c r="C90" s="49"/>
-      <c r="D90" s="49"/>
-      <c r="E90" s="49"/>
-      <c r="F90" s="49"/>
-      <c r="G90" s="49"/>
-      <c r="H90" s="49"/>
-      <c r="I90" s="49"/>
-      <c r="J90" s="49"/>
-      <c r="K90" s="49"/>
-      <c r="L90" s="49"/>
+      <c r="A90" s="48"/>
+      <c r="B90" s="48"/>
+      <c r="C90" s="48"/>
+      <c r="D90" s="48"/>
+      <c r="E90" s="48"/>
+      <c r="F90" s="48"/>
+      <c r="G90" s="48"/>
+      <c r="H90" s="48"/>
+      <c r="I90" s="48"/>
+      <c r="J90" s="48"/>
+      <c r="K90" s="48"/>
+      <c r="L90" s="48"/>
     </row>
     <row r="91" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A91" s="49"/>
-      <c r="B91" s="49"/>
-      <c r="C91" s="49"/>
-      <c r="D91" s="49"/>
-      <c r="E91" s="49"/>
-      <c r="F91" s="49"/>
-      <c r="G91" s="49"/>
-      <c r="H91" s="49"/>
-      <c r="I91" s="49"/>
-      <c r="J91" s="49"/>
-      <c r="K91" s="49"/>
-      <c r="L91" s="49"/>
+      <c r="A91" s="48"/>
+      <c r="B91" s="48"/>
+      <c r="C91" s="48"/>
+      <c r="D91" s="48"/>
+      <c r="E91" s="48"/>
+      <c r="F91" s="48"/>
+      <c r="G91" s="48"/>
+      <c r="H91" s="48"/>
+      <c r="I91" s="48"/>
+      <c r="J91" s="48"/>
+      <c r="K91" s="48"/>
+      <c r="L91" s="48"/>
     </row>
     <row r="92" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A92" s="49"/>
-      <c r="B92" s="49"/>
-      <c r="C92" s="49"/>
-      <c r="D92" s="49"/>
-      <c r="E92" s="49"/>
-      <c r="F92" s="49"/>
-      <c r="G92" s="49"/>
-      <c r="H92" s="49"/>
-      <c r="I92" s="49"/>
-      <c r="J92" s="49"/>
-      <c r="K92" s="49"/>
-      <c r="L92" s="49"/>
+      <c r="A92" s="48"/>
+      <c r="B92" s="48"/>
+      <c r="C92" s="48"/>
+      <c r="D92" s="48"/>
+      <c r="E92" s="48"/>
+      <c r="F92" s="48"/>
+      <c r="G92" s="48"/>
+      <c r="H92" s="48"/>
+      <c r="I92" s="48"/>
+      <c r="J92" s="48"/>
+      <c r="K92" s="48"/>
+      <c r="L92" s="48"/>
     </row>
     <row r="93" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A93" s="49"/>
-      <c r="B93" s="49"/>
-      <c r="C93" s="49"/>
-      <c r="D93" s="49"/>
-      <c r="E93" s="49"/>
-      <c r="F93" s="49"/>
-      <c r="G93" s="49"/>
-      <c r="H93" s="49"/>
-      <c r="I93" s="49"/>
-      <c r="J93" s="49"/>
-      <c r="K93" s="49"/>
-      <c r="L93" s="49"/>
+      <c r="A93" s="48"/>
+      <c r="B93" s="48"/>
+      <c r="C93" s="48"/>
+      <c r="D93" s="48"/>
+      <c r="E93" s="48"/>
+      <c r="F93" s="48"/>
+      <c r="G93" s="48"/>
+      <c r="H93" s="48"/>
+      <c r="I93" s="48"/>
+      <c r="J93" s="48"/>
+      <c r="K93" s="48"/>
+      <c r="L93" s="48"/>
     </row>
     <row r="94" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A94" s="49"/>
-      <c r="B94" s="49"/>
-      <c r="C94" s="49"/>
-      <c r="D94" s="49"/>
-      <c r="E94" s="49"/>
-      <c r="F94" s="49"/>
-      <c r="G94" s="49"/>
-      <c r="H94" s="49"/>
-      <c r="I94" s="49"/>
-      <c r="J94" s="49"/>
-      <c r="K94" s="49"/>
-      <c r="L94" s="49"/>
+      <c r="A94" s="48"/>
+      <c r="B94" s="48"/>
+      <c r="C94" s="48"/>
+      <c r="D94" s="48"/>
+      <c r="E94" s="48"/>
+      <c r="F94" s="48"/>
+      <c r="G94" s="48"/>
+      <c r="H94" s="48"/>
+      <c r="I94" s="48"/>
+      <c r="J94" s="48"/>
+      <c r="K94" s="48"/>
+      <c r="L94" s="48"/>
     </row>
     <row r="95" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A95" s="49"/>
-      <c r="B95" s="49"/>
-      <c r="C95" s="49"/>
-      <c r="D95" s="49"/>
-      <c r="E95" s="49"/>
-      <c r="F95" s="49"/>
-      <c r="G95" s="49"/>
-      <c r="H95" s="49"/>
-      <c r="I95" s="49"/>
-      <c r="J95" s="49"/>
-      <c r="K95" s="49"/>
-      <c r="L95" s="49"/>
+      <c r="A95" s="48"/>
+      <c r="B95" s="48"/>
+      <c r="C95" s="48"/>
+      <c r="D95" s="48"/>
+      <c r="E95" s="48"/>
+      <c r="F95" s="48"/>
+      <c r="G95" s="48"/>
+      <c r="H95" s="48"/>
+      <c r="I95" s="48"/>
+      <c r="J95" s="48"/>
+      <c r="K95" s="48"/>
+      <c r="L95" s="48"/>
     </row>
     <row r="96" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A96" s="49"/>
-      <c r="B96" s="49"/>
-      <c r="C96" s="49"/>
-      <c r="D96" s="49"/>
-      <c r="E96" s="49"/>
-      <c r="F96" s="49"/>
-      <c r="G96" s="49"/>
-      <c r="H96" s="49"/>
-      <c r="I96" s="49"/>
-      <c r="J96" s="49"/>
-      <c r="K96" s="49"/>
-      <c r="L96" s="49"/>
+      <c r="A96" s="48"/>
+      <c r="B96" s="48"/>
+      <c r="C96" s="48"/>
+      <c r="D96" s="48"/>
+      <c r="E96" s="48"/>
+      <c r="F96" s="48"/>
+      <c r="G96" s="48"/>
+      <c r="H96" s="48"/>
+      <c r="I96" s="48"/>
+      <c r="J96" s="48"/>
+      <c r="K96" s="48"/>
+      <c r="L96" s="48"/>
     </row>
     <row r="97" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A97" s="49"/>
-      <c r="B97" s="49"/>
-      <c r="C97" s="49"/>
-      <c r="D97" s="49"/>
-      <c r="E97" s="49"/>
-      <c r="F97" s="49"/>
-      <c r="G97" s="49"/>
-      <c r="H97" s="49"/>
-      <c r="I97" s="49"/>
-      <c r="J97" s="49"/>
-      <c r="K97" s="49"/>
-      <c r="L97" s="49"/>
+      <c r="A97" s="48"/>
+      <c r="B97" s="48"/>
+      <c r="C97" s="48"/>
+      <c r="D97" s="48"/>
+      <c r="E97" s="48"/>
+      <c r="F97" s="48"/>
+      <c r="G97" s="48"/>
+      <c r="H97" s="48"/>
+      <c r="I97" s="48"/>
+      <c r="J97" s="48"/>
+      <c r="K97" s="48"/>
+      <c r="L97" s="48"/>
     </row>
     <row r="98" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A98" s="49"/>
-      <c r="B98" s="49"/>
-      <c r="C98" s="49"/>
-      <c r="D98" s="49"/>
-      <c r="E98" s="49"/>
-      <c r="F98" s="49"/>
-      <c r="G98" s="49"/>
-      <c r="H98" s="49"/>
-      <c r="I98" s="49"/>
-      <c r="J98" s="49"/>
-      <c r="K98" s="49"/>
-      <c r="L98" s="49"/>
+      <c r="A98" s="48"/>
+      <c r="B98" s="48"/>
+      <c r="C98" s="48"/>
+      <c r="D98" s="48"/>
+      <c r="E98" s="48"/>
+      <c r="F98" s="48"/>
+      <c r="G98" s="48"/>
+      <c r="H98" s="48"/>
+      <c r="I98" s="48"/>
+      <c r="J98" s="48"/>
+      <c r="K98" s="48"/>
+      <c r="L98" s="48"/>
     </row>
     <row r="99" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A99" s="49"/>
-      <c r="B99" s="49"/>
-      <c r="C99" s="49"/>
-      <c r="D99" s="49"/>
-      <c r="E99" s="49"/>
-      <c r="F99" s="49"/>
-      <c r="G99" s="49"/>
-      <c r="H99" s="49"/>
-      <c r="I99" s="49"/>
-      <c r="J99" s="49"/>
-      <c r="K99" s="49"/>
-      <c r="L99" s="49"/>
+      <c r="A99" s="48"/>
+      <c r="B99" s="48"/>
+      <c r="C99" s="48"/>
+      <c r="D99" s="48"/>
+      <c r="E99" s="48"/>
+      <c r="F99" s="48"/>
+      <c r="G99" s="48"/>
+      <c r="H99" s="48"/>
+      <c r="I99" s="48"/>
+      <c r="J99" s="48"/>
+      <c r="K99" s="48"/>
+      <c r="L99" s="48"/>
     </row>
     <row r="100" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A100" s="49"/>
-      <c r="B100" s="49"/>
-      <c r="C100" s="49"/>
-      <c r="D100" s="49"/>
-      <c r="E100" s="49"/>
-      <c r="F100" s="49"/>
-      <c r="G100" s="49"/>
-      <c r="H100" s="49"/>
-      <c r="I100" s="49"/>
-      <c r="J100" s="49"/>
-      <c r="K100" s="49"/>
-      <c r="L100" s="49"/>
+      <c r="A100" s="48"/>
+      <c r="B100" s="48"/>
+      <c r="C100" s="48"/>
+      <c r="D100" s="48"/>
+      <c r="E100" s="48"/>
+      <c r="F100" s="48"/>
+      <c r="G100" s="48"/>
+      <c r="H100" s="48"/>
+      <c r="I100" s="48"/>
+      <c r="J100" s="48"/>
+      <c r="K100" s="48"/>
+      <c r="L100" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A12:H12"/>
     <mergeCell ref="A24:A29"/>
     <mergeCell ref="A20:H20"/>
     <mergeCell ref="A23:H23"/>
     <mergeCell ref="A6:A11"/>
     <mergeCell ref="A13:A19"/>
     <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A12:H12"/>
   </mergeCells>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0" footer="0"/>
   <pageSetup scale="62" orientation="landscape"/>
@@ -3535,59 +3526,59 @@
   </sheetPr>
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" customWidth="1"/>
+    <col min="1" max="1" width="9.77734375" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="25.81640625" customWidth="1"/>
-    <col min="4" max="4" width="34.54296875" customWidth="1"/>
-    <col min="5" max="5" width="26.08984375" customWidth="1"/>
-    <col min="6" max="6" width="24.54296875" customWidth="1"/>
-    <col min="7" max="7" width="33.54296875" customWidth="1"/>
-    <col min="8" max="8" width="38.453125" customWidth="1"/>
-    <col min="9" max="9" width="8.81640625" customWidth="1"/>
-    <col min="10" max="10" width="19.81640625" customWidth="1"/>
+    <col min="3" max="3" width="25.77734375" customWidth="1"/>
+    <col min="4" max="4" width="34.5546875" customWidth="1"/>
+    <col min="5" max="5" width="26.109375" customWidth="1"/>
+    <col min="6" max="6" width="24.5546875" customWidth="1"/>
+    <col min="7" max="7" width="33.5546875" customWidth="1"/>
+    <col min="8" max="8" width="38.44140625" customWidth="1"/>
+    <col min="9" max="9" width="8.77734375" customWidth="1"/>
+    <col min="10" max="10" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
     </row>
     <row r="2" spans="1:8" ht="21">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-    </row>
-    <row r="3" spans="1:8" ht="14.5">
-      <c r="A3" s="90"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.5">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+    </row>
+    <row r="3" spans="1:8" ht="14.4">
+      <c r="A3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -3613,18 +3604,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.5">
-      <c r="A5" s="91"/>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-    </row>
-    <row r="6" spans="1:8" ht="14.5">
-      <c r="A6" s="76" t="s">
+    <row r="5" spans="1:8" ht="14.4">
+      <c r="A5" s="77"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+    </row>
+    <row r="6" spans="1:8" ht="14.4">
+      <c r="A6" s="80" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -3633,24 +3624,24 @@
       <c r="C6" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="3" t="s">
         <v>78</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.5">
-      <c r="A7" s="75"/>
+    <row r="7" spans="1:8" ht="14.4">
+      <c r="A7" s="76"/>
       <c r="B7" s="2" t="s">
         <v>82</v>
       </c>
@@ -3660,188 +3651,188 @@
       <c r="D7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:8" ht="14.4">
+      <c r="A8" s="76"/>
+      <c r="B8" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="14.5">
-      <c r="A8" s="75"/>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.5">
-      <c r="A9" s="75"/>
+    <row r="9" spans="1:8" ht="14.4">
+      <c r="A9" s="76"/>
       <c r="B9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="14.4">
+      <c r="A10" s="76"/>
+      <c r="B10" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="C10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="14.5">
-      <c r="A10" s="75"/>
-      <c r="B10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G10" s="2" t="s">
+    </row>
+    <row r="11" spans="1:8" ht="14.4">
+      <c r="A11" s="78"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="76"/>
+    </row>
+    <row r="12" spans="1:8" ht="14.4">
+      <c r="A12" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="C12" s="6" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="14.5">
-      <c r="A11" s="73"/>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="75"/>
-    </row>
-    <row r="12" spans="1:8" ht="14.5">
-      <c r="A12" s="76" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="E12" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="F12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="14.4">
+      <c r="A13" s="76"/>
+      <c r="B13" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="14.5">
-      <c r="A13" s="75"/>
-      <c r="B13" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="G13" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="H13" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G13" s="2" t="s">
+    </row>
+    <row r="14" spans="1:8" ht="14.4">
+      <c r="A14" s="76"/>
+      <c r="B14" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="C14" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="14.5">
-      <c r="A14" s="75"/>
-      <c r="B14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="G14" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="14.5">
-      <c r="A15" s="75"/>
+    <row r="15" spans="1:8" ht="14.4">
+      <c r="A15" s="76"/>
       <c r="B15" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>47</v>
@@ -3853,98 +3844,98 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14.5">
-      <c r="A16" s="75"/>
+    <row r="16" spans="1:8" ht="14.4">
+      <c r="A16" s="76"/>
       <c r="B16" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="14.4">
+      <c r="A17" s="76"/>
+      <c r="B17" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="14.5">
-      <c r="A17" s="75"/>
-      <c r="B17" s="6" t="s">
+      <c r="C17" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="E17" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" ht="14.4">
+      <c r="A18" s="76"/>
+      <c r="B18" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" ht="14.5">
-      <c r="A18" s="75"/>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="14.4">
+      <c r="A19" s="78"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="76"/>
+    </row>
+    <row r="20" spans="1:8" ht="14.4">
+      <c r="A20" s="81" t="s">
         <v>118</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="14.5">
-      <c r="A19" s="73"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="75"/>
-    </row>
-    <row r="20" spans="1:8" ht="14.5">
-      <c r="A20" s="77" t="s">
+      <c r="B20" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>122</v>
@@ -3952,15 +3943,15 @@
       <c r="F20" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="3" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="26.25" customHeight="1">
-      <c r="A21" s="75"/>
+      <c r="A21" s="76"/>
       <c r="B21" s="2" t="s">
         <v>29</v>
       </c>
@@ -3984,91 +3975,91 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A22" s="73"/>
-      <c r="B22" s="74"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="75"/>
+      <c r="A22" s="78"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="76"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A23" s="76" t="s">
+      <c r="A23" s="80" t="s">
         <v>126</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>128</v>
+        <v>94</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A24" s="75"/>
+      <c r="A24" s="76"/>
       <c r="B24" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E24" s="2" t="s">
+      <c r="G24" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="H24" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="G24" s="2" t="s">
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A25" s="76"/>
+      <c r="B25" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A25" s="75"/>
-      <c r="B25" s="6" t="s">
+      <c r="D25" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="E25" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="F25" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="G25" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="H25" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>141</v>
-      </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A26" s="75"/>
+      <c r="A26" s="76"/>
       <c r="B26" s="2" t="s">
         <v>47</v>
       </c>
@@ -4084,59 +4075,57 @@
       <c r="F26" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>142</v>
+      <c r="G26" s="6" t="s">
+        <v>140</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A27" s="75"/>
+      <c r="A27" s="76"/>
       <c r="B27" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>111</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G27" s="6"/>
       <c r="H27" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A28" s="75"/>
+      <c r="A28" s="76"/>
       <c r="B28" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="E28" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="F28" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="G28" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="F28" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="G28" s="6" t="s">
+      <c r="H28" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1">
@@ -4150,96 +4139,96 @@
       <c r="H29" s="7"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A30" s="76"/>
-      <c r="B30" s="75"/>
-      <c r="C30" s="75"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="75"/>
-      <c r="F30" s="75"/>
-      <c r="G30" s="75"/>
-      <c r="H30" s="75"/>
+      <c r="A30" s="80"/>
+      <c r="B30" s="76"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A31" s="73" t="s">
+      <c r="A31" s="78" t="s">
+        <v>148</v>
+      </c>
+      <c r="B31" s="76"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B31" s="75"/>
-      <c r="C31" s="75"/>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="E31" s="78" t="s">
-        <v>151</v>
-      </c>
-      <c r="F31" s="79"/>
-      <c r="G31" s="79"/>
-      <c r="H31" s="80"/>
+      <c r="F31" s="83"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="84"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1">
       <c r="A32" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B32" s="9">
+        <v>0.3125</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="B32" s="10">
-        <v>0.3125</v>
-      </c>
-      <c r="C32" s="10" t="s">
+      <c r="D32" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="D32" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="E32" s="81"/>
-      <c r="F32" s="82"/>
-      <c r="G32" s="82"/>
-      <c r="H32" s="83"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="86"/>
+      <c r="G32" s="86"/>
+      <c r="H32" s="87"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1">
       <c r="A33" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="C33" s="10">
+      <c r="C33" s="9">
         <v>0.60416666666666696</v>
       </c>
       <c r="D33" s="7"/>
-      <c r="E33" s="81"/>
-      <c r="F33" s="82"/>
-      <c r="G33" s="82"/>
-      <c r="H33" s="83"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="86"/>
+      <c r="H33" s="87"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B34" s="10">
+        <v>156</v>
+      </c>
+      <c r="B34" s="9">
         <v>0.70833333333333304</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="9">
         <v>0.75</v>
       </c>
       <c r="D34" s="7"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="82"/>
-      <c r="G34" s="82"/>
-      <c r="H34" s="83"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="86"/>
+      <c r="H34" s="87"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1">
       <c r="A35" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="9">
         <v>0.83333333333333304</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="9">
         <v>0.88541666666666696</v>
       </c>
       <c r="D35" s="7"/>
-      <c r="E35" s="84"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="86"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="89"/>
+      <c r="G35" s="89"/>
+      <c r="H35" s="90"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1"/>
     <row r="37" spans="1:8" ht="15.75" customHeight="1"/>
@@ -4308,11 +4297,6 @@
     <row r="100" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A11:H11"/>
     <mergeCell ref="A19:H19"/>
     <mergeCell ref="A22:H22"/>
     <mergeCell ref="A30:H30"/>
@@ -4322,6 +4306,11 @@
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A23:A28"/>
     <mergeCell ref="E31:H35"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A11:H11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.29861111111111099" footer="0.29861111111111099"/>
   <pageSetup paperSize="9" scale="66" orientation="landscape"/>
